--- a/Code/Results/Cases/Case_4_142/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_142/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.201071404884374</v>
+        <v>1.398111682538286</v>
       </c>
       <c r="C2">
-        <v>3.503922517254694</v>
+        <v>1.102401346575959</v>
       </c>
       <c r="D2">
-        <v>0.2218436447371488</v>
+        <v>0.07823519779050514</v>
       </c>
       <c r="E2">
-        <v>1.558277922352588</v>
+        <v>0.4092139868845805</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007194553733506834</v>
+        <v>0.002463081803594892</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.921336487669066</v>
+        <v>3.808639805109038</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.507722766457221</v>
+        <v>1.282652077757803</v>
       </c>
       <c r="C3">
-        <v>2.951944565811971</v>
+        <v>0.9851498860622314</v>
       </c>
       <c r="D3">
-        <v>0.1877231075027481</v>
+        <v>0.07093616729936514</v>
       </c>
       <c r="E3">
-        <v>1.302326871588974</v>
+        <v>0.3561823458071416</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007397010499976542</v>
+        <v>0.00247260389829089</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.516769529841383</v>
+        <v>3.471471902225232</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.109293392002257</v>
+        <v>1.21366884969143</v>
       </c>
       <c r="C4">
-        <v>2.631421874439638</v>
+        <v>0.9139159272868937</v>
       </c>
       <c r="D4">
-        <v>0.1678309104085685</v>
+        <v>0.0665110432251339</v>
       </c>
       <c r="E4">
-        <v>1.155110764650885</v>
+        <v>0.323841364384208</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007520113731939273</v>
+        <v>0.002478722988872705</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.694798756988234</v>
+        <v>3.265070426314281</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.952371003143298</v>
+        <v>1.186024478400043</v>
       </c>
       <c r="C5">
-        <v>2.504466283606462</v>
+        <v>0.8850687720020005</v>
       </c>
       <c r="D5">
-        <v>0.1599367582706748</v>
+        <v>0.06472143427211563</v>
       </c>
       <c r="E5">
-        <v>1.097067277528978</v>
+        <v>0.3107122537241196</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007570201230929284</v>
+        <v>0.002481285492114703</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.367898730133419</v>
+        <v>3.181091008861102</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.926607272432307</v>
+        <v>1.181461967248197</v>
       </c>
       <c r="C6">
-        <v>2.48358228696469</v>
+        <v>0.8802893963844554</v>
       </c>
       <c r="D6">
-        <v>0.1586373912737429</v>
+        <v>0.06442508074619013</v>
       </c>
       <c r="E6">
-        <v>1.087533231675962</v>
+        <v>0.3085350460549705</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007578519156413892</v>
+        <v>0.002481715168467242</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.314050810189684</v>
+        <v>3.167153464462956</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.107156694402704</v>
+        <v>1.21329415503601</v>
       </c>
       <c r="C7">
-        <v>2.62969600556039</v>
+        <v>0.9135261630189575</v>
       </c>
       <c r="D7">
-        <v>0.1677236511679752</v>
+        <v>0.0664868533134495</v>
       </c>
       <c r="E7">
-        <v>1.154320713179374</v>
+        <v>0.3236641047673459</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007520789286461493</v>
+        <v>0.002478757268086783</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.690359893219238</v>
+        <v>3.263937353749583</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.955369977152316</v>
+        <v>1.357896755383081</v>
       </c>
       <c r="C8">
-        <v>3.309124712342225</v>
+        <v>1.061809661134475</v>
       </c>
       <c r="D8">
-        <v>0.2098226729802093</v>
+        <v>0.07570642896239121</v>
       </c>
       <c r="E8">
-        <v>1.467584238108387</v>
+        <v>0.3908795828444624</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007264764531245239</v>
+        <v>0.002466308713397018</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.4272189239353</v>
+        <v>3.692239965218988</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.925447155281688</v>
+        <v>1.657244715879415</v>
       </c>
       <c r="C9">
-        <v>4.848389411088192</v>
+        <v>1.359071137040758</v>
       </c>
       <c r="D9">
-        <v>0.3041393797774674</v>
+        <v>0.09426047135147542</v>
       </c>
       <c r="E9">
-        <v>2.196471430309842</v>
+        <v>0.5246942599270596</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0006738941187684682</v>
+        <v>0.002444040469492155</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.28512396114172</v>
+        <v>4.538264888683386</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.76245678528494</v>
+        <v>1.887722238917831</v>
       </c>
       <c r="C10">
-        <v>6.241585856380652</v>
+        <v>1.582087147121456</v>
       </c>
       <c r="D10">
-        <v>0.3879926913903802</v>
+        <v>0.1082198027059462</v>
       </c>
       <c r="E10">
-        <v>2.884746551970991</v>
+        <v>0.6246004464923658</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.00063064840938587</v>
+        <v>0.002428960074469515</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.6815798836646</v>
+        <v>5.165316898411078</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.775539262973609</v>
+        <v>1.995073650205313</v>
       </c>
       <c r="C11">
-        <v>6.994363916718157</v>
+        <v>1.684697649966665</v>
       </c>
       <c r="D11">
-        <v>0.4325889145833344</v>
+        <v>0.114650155714429</v>
       </c>
       <c r="E11">
-        <v>3.270789733289376</v>
+        <v>0.6704801522862169</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006085317582809134</v>
+        <v>0.002422371745864983</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.47584103808862</v>
+        <v>5.452161238919246</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.201068693314255</v>
+        <v>2.036102833786344</v>
       </c>
       <c r="C12">
-        <v>7.307457576152729</v>
+        <v>1.723732827116578</v>
       </c>
       <c r="D12">
-        <v>0.4509714957334552</v>
+        <v>0.1170974104021667</v>
       </c>
       <c r="E12">
-        <v>3.434783392168143</v>
+        <v>0.6879227028873061</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0005995512043623084</v>
+        <v>0.0024199155378696</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.21302869919106</v>
+        <v>5.561043209839113</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.107134489934708</v>
+        <v>2.027249393530724</v>
       </c>
       <c r="C13">
-        <v>7.23849720951921</v>
+        <v>1.71531775371659</v>
       </c>
       <c r="D13">
-        <v>0.4469314418301025</v>
+        <v>0.1165697956076883</v>
       </c>
       <c r="E13">
-        <v>3.398477632943198</v>
+        <v>0.6841629622065426</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006015188523351097</v>
+        <v>0.002420442814184889</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.05113230318261</v>
+        <v>5.537581453435678</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.809562129908784</v>
+        <v>1.998441478762629</v>
       </c>
       <c r="C14">
-        <v>7.01946327050814</v>
+        <v>1.687905443133104</v>
       </c>
       <c r="D14">
-        <v>0.4340663002878387</v>
+        <v>0.1148512438921614</v>
       </c>
       <c r="E14">
-        <v>3.28385802157014</v>
+        <v>0.671913740687927</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006078073210234358</v>
+        <v>0.002422168900244034</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.53513965642082</v>
+        <v>5.461113628399062</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.633470334675565</v>
+        <v>1.980845486180669</v>
       </c>
       <c r="C15">
-        <v>6.889431256028388</v>
+        <v>1.671138263429611</v>
       </c>
       <c r="D15">
-        <v>0.4264055223607812</v>
+        <v>0.1138001935771058</v>
       </c>
       <c r="E15">
-        <v>3.216298882334939</v>
+        <v>0.6644199178644499</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006115691215144131</v>
+        <v>0.002423231197697362</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.22755658673583</v>
+        <v>5.414309700890556</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.700943746326288</v>
+        <v>1.880758452117107</v>
       </c>
       <c r="C16">
-        <v>6.195534467145762</v>
+        <v>1.575405662922549</v>
       </c>
       <c r="D16">
-        <v>0.3852472306406582</v>
+        <v>0.1078012358687346</v>
       </c>
       <c r="E16">
-        <v>2.86148084069643</v>
+        <v>0.6216113658671958</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0006320271759181559</v>
+        <v>0.002429396070133433</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.57084868639538</v>
+        <v>5.146605662365403</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.182523556019305</v>
+        <v>1.820012161870238</v>
       </c>
       <c r="C17">
-        <v>5.805811788649521</v>
+        <v>1.516982228229267</v>
       </c>
       <c r="D17">
-        <v>0.3619378007651761</v>
+        <v>0.1041420891959319</v>
       </c>
       <c r="E17">
-        <v>2.666084061966103</v>
+        <v>0.5954650804879122</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0006438242051046287</v>
+        <v>0.002433247328778065</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.62944338572134</v>
+        <v>4.982808141806629</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.899670135697875</v>
+        <v>1.78530731529662</v>
       </c>
       <c r="C18">
-        <v>5.591941803112263</v>
+        <v>1.483486993591441</v>
       </c>
       <c r="D18">
-        <v>0.3490907682048316</v>
+        <v>0.1020449493299083</v>
       </c>
       <c r="E18">
-        <v>2.559945928085597</v>
+        <v>0.5804666580977766</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0006504007523997464</v>
+        <v>0.00243548808299335</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.10960355659782</v>
+        <v>4.88874439055374</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.806212594889757</v>
+        <v>1.773596667477761</v>
       </c>
       <c r="C19">
-        <v>5.521081952769009</v>
+        <v>1.472164335721914</v>
       </c>
       <c r="D19">
-        <v>0.3448258789683081</v>
+        <v>0.1013361621087512</v>
       </c>
       <c r="E19">
-        <v>2.524943332946734</v>
+        <v>0.575395156282724</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0006525965742245602</v>
+        <v>0.002436251175699488</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.93687459203014</v>
+        <v>4.856920557902299</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.23604280055622</v>
+        <v>1.8264542836597</v>
       </c>
       <c r="C20">
-        <v>5.846179552209264</v>
+        <v>1.523190199515852</v>
       </c>
       <c r="D20">
-        <v>0.3643583353428994</v>
+        <v>0.1045308300015506</v>
       </c>
       <c r="E20">
-        <v>2.686202324771131</v>
+        <v>0.5982441851489568</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0006425912571990846</v>
+        <v>0.00243283470834454</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.7273090224881</v>
+        <v>5.000229103646319</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.895626041370406</v>
+        <v>2.006892675328629</v>
       </c>
       <c r="C21">
-        <v>7.082902716722856</v>
+        <v>1.695952152013888</v>
       </c>
       <c r="D21">
-        <v>0.4377975734970789</v>
+        <v>0.1153556869391537</v>
       </c>
       <c r="E21">
-        <v>3.316948484041632</v>
+        <v>0.6755097086066399</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006059798286637452</v>
+        <v>0.002421660861532926</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.6848634512524</v>
+        <v>5.483566768715093</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.2470400329525</v>
+        <v>2.12702860238312</v>
       </c>
       <c r="C22">
-        <v>8.069590142883953</v>
+        <v>1.80991021978366</v>
       </c>
       <c r="D22">
-        <v>0.4952706034800656</v>
+        <v>0.1225019194875046</v>
       </c>
       <c r="E22">
-        <v>3.843572220020292</v>
+        <v>0.7264121409753841</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0005781727717318411</v>
+        <v>0.002414583174080491</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.98381745476752</v>
+        <v>5.800987778486217</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.49093299346714</v>
+        <v>2.062701824610144</v>
       </c>
       <c r="C23">
-        <v>7.519713602654065</v>
+        <v>1.748988641696997</v>
       </c>
       <c r="D23">
-        <v>0.4633744872749475</v>
+        <v>0.1186810584200231</v>
       </c>
       <c r="E23">
-        <v>3.547212874972828</v>
+        <v>0.6992051910457775</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0005935305603328445</v>
+        <v>0.00241834022199519</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.70963086744064</v>
+        <v>5.631423600737662</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.211800423534726</v>
+        <v>1.823541119538277</v>
       </c>
       <c r="C24">
-        <v>5.827898221698888</v>
+        <v>1.520383286383208</v>
       </c>
       <c r="D24">
-        <v>0.3632623212808852</v>
+        <v>0.104355059926533</v>
       </c>
       <c r="E24">
-        <v>2.677087990708358</v>
+        <v>0.5969876483305967</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0006431492984103335</v>
+        <v>0.002433021171202395</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.68299869708062</v>
+        <v>4.992352760122088</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.344017482428683</v>
+        <v>1.574479944711584</v>
       </c>
       <c r="C25">
-        <v>4.399286511687649</v>
+        <v>1.277892707884234</v>
       </c>
       <c r="D25">
-        <v>0.276786947932294</v>
+        <v>0.08918641965993857</v>
       </c>
       <c r="E25">
-        <v>1.980755774404997</v>
+        <v>0.4882416556510094</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0006886185550624835</v>
+        <v>0.00244983788456982</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.17060591875818</v>
+        <v>4.308559645820083</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_142/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_142/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.398111682538286</v>
+        <v>4.201071404884431</v>
       </c>
       <c r="C2">
-        <v>1.102401346575959</v>
+        <v>3.503922517253784</v>
       </c>
       <c r="D2">
-        <v>0.07823519779050514</v>
+        <v>0.2218436447366656</v>
       </c>
       <c r="E2">
-        <v>0.4092139868845805</v>
+        <v>1.558277922352559</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002463081803594892</v>
+        <v>0.0007194553733650814</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.808639805109038</v>
+        <v>9.921336487668952</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.282652077757803</v>
+        <v>3.507722766457164</v>
       </c>
       <c r="C3">
-        <v>0.9851498860622314</v>
+        <v>2.951944565812482</v>
       </c>
       <c r="D3">
-        <v>0.07093616729936514</v>
+        <v>0.1877231075027908</v>
       </c>
       <c r="E3">
-        <v>0.3561823458071416</v>
+        <v>1.302326871588917</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00247260389829089</v>
+        <v>0.0007397010499990499</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.471471902225232</v>
+        <v>8.516769529841383</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.21366884969143</v>
+        <v>3.109293392002087</v>
       </c>
       <c r="C4">
-        <v>0.9139159272868937</v>
+        <v>2.631421874439695</v>
       </c>
       <c r="D4">
-        <v>0.0665110432251339</v>
+        <v>0.1678309104079716</v>
       </c>
       <c r="E4">
-        <v>0.323841364384208</v>
+        <v>1.155110764650871</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002478722988872705</v>
+        <v>0.0007520113732915778</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.265070426314281</v>
+        <v>7.694798756988291</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.186024478400043</v>
+        <v>2.952371003143242</v>
       </c>
       <c r="C5">
-        <v>0.8850687720020005</v>
+        <v>2.504466283606462</v>
       </c>
       <c r="D5">
-        <v>0.06472143427211563</v>
+        <v>0.1599367582700353</v>
       </c>
       <c r="E5">
-        <v>0.3107122537241196</v>
+        <v>1.097067277529163</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002481285492114703</v>
+        <v>0.0007570201233493959</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.181091008861102</v>
+        <v>7.367898730133334</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.181461967248197</v>
+        <v>2.926607272432364</v>
       </c>
       <c r="C6">
-        <v>0.8802893963844554</v>
+        <v>2.4835822869656</v>
       </c>
       <c r="D6">
-        <v>0.06442508074619013</v>
+        <v>0.1586373912735866</v>
       </c>
       <c r="E6">
-        <v>0.3085350460549705</v>
+        <v>1.087533231676019</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002481715168467242</v>
+        <v>0.0007578519156367431</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.167153464462956</v>
+        <v>7.314050810189855</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.21329415503601</v>
+        <v>3.107156694403045</v>
       </c>
       <c r="C7">
-        <v>0.9135261630189575</v>
+        <v>2.629696005560845</v>
       </c>
       <c r="D7">
-        <v>0.0664868533134495</v>
+        <v>0.1677236511678899</v>
       </c>
       <c r="E7">
-        <v>0.3236641047673459</v>
+        <v>1.154320713179359</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002478757268086783</v>
+        <v>0.0007520789284999324</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.263937353749583</v>
+        <v>7.690359893219352</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.357896755383081</v>
+        <v>3.955369977152088</v>
       </c>
       <c r="C8">
-        <v>1.061809661134475</v>
+        <v>3.309124712342282</v>
       </c>
       <c r="D8">
-        <v>0.07570642896239121</v>
+        <v>0.2098226729796266</v>
       </c>
       <c r="E8">
-        <v>0.3908795828444624</v>
+        <v>1.467584238108344</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002466308713397018</v>
+        <v>0.0007264764531458196</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.692239965218988</v>
+        <v>9.427218923935186</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.657244715879415</v>
+        <v>5.925447155281347</v>
       </c>
       <c r="C9">
-        <v>1.359071137040758</v>
+        <v>4.848389411088192</v>
       </c>
       <c r="D9">
-        <v>0.09426047135147542</v>
+        <v>0.3041393797772116</v>
       </c>
       <c r="E9">
-        <v>0.5246942599270596</v>
+        <v>2.196471430309913</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002444040469492155</v>
+        <v>0.0006738941185497552</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.538264888683386</v>
+        <v>13.28512396114226</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.887722238917831</v>
+        <v>7.762456785285281</v>
       </c>
       <c r="C10">
-        <v>1.582087147121456</v>
+        <v>6.241585856381789</v>
       </c>
       <c r="D10">
-        <v>0.1082198027059462</v>
+        <v>0.3879926913905507</v>
       </c>
       <c r="E10">
-        <v>0.6246004464923658</v>
+        <v>2.884746551970977</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002428960074469515</v>
+        <v>0.0006306484094468574</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5.165316898411078</v>
+        <v>16.68157988366488</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.995073650205313</v>
+        <v>8.775539262973552</v>
       </c>
       <c r="C11">
-        <v>1.684697649966665</v>
+        <v>6.994363916719749</v>
       </c>
       <c r="D11">
-        <v>0.114650155714429</v>
+        <v>0.4325889145837323</v>
       </c>
       <c r="E11">
-        <v>0.6704801522862169</v>
+        <v>3.27078973328932</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002422371745864983</v>
+        <v>0.0006085317585622363</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.452161238919246</v>
+        <v>18.4758410380885</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.036102833786344</v>
+        <v>9.2010686933138</v>
       </c>
       <c r="C12">
-        <v>1.723732827116578</v>
+        <v>7.307457576153524</v>
       </c>
       <c r="D12">
-        <v>0.1170974104021667</v>
+        <v>0.4509714957336541</v>
       </c>
       <c r="E12">
-        <v>0.6879227028873061</v>
+        <v>3.434783392168029</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0024199155378696</v>
+        <v>0.0005995512043097505</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.561043209839113</v>
+        <v>19.2130286991906</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.027249393530724</v>
+        <v>9.107134489934651</v>
       </c>
       <c r="C13">
-        <v>1.71531775371659</v>
+        <v>7.238497209518755</v>
       </c>
       <c r="D13">
-        <v>0.1165697956076883</v>
+        <v>0.4469314418311399</v>
       </c>
       <c r="E13">
-        <v>0.6841629622065426</v>
+        <v>3.398477632943312</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002420442814184889</v>
+        <v>0.0006015188521366347</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.537581453435678</v>
+        <v>19.05113230318295</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.998441478762629</v>
+        <v>8.809562129909011</v>
       </c>
       <c r="C14">
-        <v>1.687905443133104</v>
+        <v>7.019463270507345</v>
       </c>
       <c r="D14">
-        <v>0.1148512438921614</v>
+        <v>0.4340663002878529</v>
       </c>
       <c r="E14">
-        <v>0.671913740687927</v>
+        <v>3.283858021570197</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002422168900244034</v>
+        <v>0.0006078073211500776</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.461113628399062</v>
+        <v>18.53513965642156</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.980845486180669</v>
+        <v>8.633470334675792</v>
       </c>
       <c r="C15">
-        <v>1.671138263429611</v>
+        <v>6.889431256027478</v>
       </c>
       <c r="D15">
-        <v>0.1138001935771058</v>
+        <v>0.4264055223613781</v>
       </c>
       <c r="E15">
-        <v>0.6644199178644499</v>
+        <v>3.21629888233511</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002423231197697362</v>
+        <v>0.000611569121676021</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.414309700890556</v>
+        <v>18.22755658673606</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.880758452117107</v>
+        <v>7.700943746325891</v>
       </c>
       <c r="C16">
-        <v>1.575405662922549</v>
+        <v>6.195534467146331</v>
       </c>
       <c r="D16">
-        <v>0.1078012358687346</v>
+        <v>0.3852472306399477</v>
       </c>
       <c r="E16">
-        <v>0.6216113658671958</v>
+        <v>2.861480840696373</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002429396070133433</v>
+        <v>0.0006320271761040788</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5.146605662365403</v>
+        <v>16.57084868639532</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.820012161870238</v>
+        <v>7.182523556019305</v>
       </c>
       <c r="C17">
-        <v>1.516982228229267</v>
+        <v>5.805811788649748</v>
       </c>
       <c r="D17">
-        <v>0.1041420891959319</v>
+        <v>0.3619378007657019</v>
       </c>
       <c r="E17">
-        <v>0.5954650804879122</v>
+        <v>2.666084061966131</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002433247328778065</v>
+        <v>0.0006438242051709669</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.982808141806629</v>
+        <v>15.62944338572169</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.78530731529662</v>
+        <v>6.899670135697647</v>
       </c>
       <c r="C18">
-        <v>1.483486993591441</v>
+        <v>5.591941803111467</v>
       </c>
       <c r="D18">
-        <v>0.1020449493299083</v>
+        <v>0.3490907682051727</v>
       </c>
       <c r="E18">
-        <v>0.5804666580977766</v>
+        <v>2.559945928085568</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.00243548808299335</v>
+        <v>0.000650400752374658</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.88874439055374</v>
+        <v>15.10960355659779</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.773596667477761</v>
+        <v>6.806212594889359</v>
       </c>
       <c r="C19">
-        <v>1.472164335721914</v>
+        <v>5.521081952768895</v>
       </c>
       <c r="D19">
-        <v>0.1013361621087512</v>
+        <v>0.3448258789691181</v>
       </c>
       <c r="E19">
-        <v>0.575395156282724</v>
+        <v>2.524943332946734</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002436251175699488</v>
+        <v>0.0006525965740582507</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.856920557902299</v>
+        <v>14.93687459203005</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.8264542836597</v>
+        <v>7.236042800556618</v>
       </c>
       <c r="C20">
-        <v>1.523190199515852</v>
+        <v>5.846179552209833</v>
       </c>
       <c r="D20">
-        <v>0.1045308300015506</v>
+        <v>0.3643583353431694</v>
       </c>
       <c r="E20">
-        <v>0.5982441851489568</v>
+        <v>2.686202324771159</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.00243283470834454</v>
+        <v>0.0006425912571686335</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.000229103646319</v>
+        <v>15.72730902248827</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.006892675328629</v>
+        <v>8.895626041370747</v>
       </c>
       <c r="C21">
-        <v>1.695952152013888</v>
+        <v>7.082902716723083</v>
       </c>
       <c r="D21">
-        <v>0.1153556869391537</v>
+        <v>0.4377975734975337</v>
       </c>
       <c r="E21">
-        <v>0.6755097086066399</v>
+        <v>3.316948484041731</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002421660861532926</v>
+        <v>0.0006059798286154995</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.483566768715093</v>
+        <v>18.68486345125314</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.12702860238312</v>
+        <v>10.2470400329529</v>
       </c>
       <c r="C22">
-        <v>1.80991021978366</v>
+        <v>8.06959014288384</v>
       </c>
       <c r="D22">
-        <v>0.1225019194875046</v>
+        <v>0.4952706034802077</v>
       </c>
       <c r="E22">
-        <v>0.7264121409753841</v>
+        <v>3.843572220020405</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002414583174080491</v>
+        <v>0.0005781727716888437</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.800987778486217</v>
+        <v>20.9838174547682</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.062701824610144</v>
+        <v>9.490932993467482</v>
       </c>
       <c r="C23">
-        <v>1.748988641696997</v>
+        <v>7.519713602653496</v>
       </c>
       <c r="D23">
-        <v>0.1186810584200231</v>
+        <v>0.4633744872750754</v>
       </c>
       <c r="E23">
-        <v>0.6992051910457775</v>
+        <v>3.547212874972814</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.00241834022199519</v>
+        <v>0.0005935305604359486</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.631423600737662</v>
+        <v>19.70963086744041</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.823541119538277</v>
+        <v>7.211800423535124</v>
       </c>
       <c r="C24">
-        <v>1.520383286383208</v>
+        <v>5.827898221699002</v>
       </c>
       <c r="D24">
-        <v>0.104355059926533</v>
+        <v>0.363262321281411</v>
       </c>
       <c r="E24">
-        <v>0.5969876483305967</v>
+        <v>2.677087990708358</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002433021171202395</v>
+        <v>0.0006431492981150082</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.992352760122088</v>
+        <v>15.68299869708102</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.574479944711584</v>
+        <v>5.344017482429138</v>
       </c>
       <c r="C25">
-        <v>1.277892707884234</v>
+        <v>4.39928651168924</v>
       </c>
       <c r="D25">
-        <v>0.08918641965993857</v>
+        <v>0.2767869479320382</v>
       </c>
       <c r="E25">
-        <v>0.4882416556510094</v>
+        <v>1.980755774404855</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.00244983788456982</v>
+        <v>0.0006886185550268501</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4.308559645820083</v>
+        <v>12.17060591875801</v>
       </c>
       <c r="J25">
         <v>0</v>
